--- a/Allocation/Leribe/Kolonyama and Mahobong.xlsx
+++ b/Allocation/Leribe/Kolonyama and Mahobong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kolonyama" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="408">
   <si>
     <t>02090413001</t>
   </si>
@@ -1224,13 +1224,28 @@
   </si>
   <si>
     <t>cgfunx</t>
+  </si>
+  <si>
+    <t>hysnev</t>
+  </si>
+  <si>
+    <t>Tsokolo Majara</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hystzw</t>
+  </si>
+  <si>
+    <t>Sechaba Leleka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,6 +1264,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1271,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1284,6 +1306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B68"/>
     </sheetView>
   </sheetViews>
@@ -3804,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6213,6 +6236,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="75" spans="1:4" ht="15.75">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
